--- a/amazon.xlsx
+++ b/amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdwinSue/Desktop/NYTTP/Excel/Practice Excercises/Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7997D56-5533-DE47-A213-A8F819D8D214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF83CBC-B279-0547-9885-371776192987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
@@ -57,13 +57,13 @@
     <t>other expenses</t>
   </si>
   <si>
-    <t>% change</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
     <t>Projection</t>
+  </si>
+  <si>
+    <t>% change between the years</t>
   </si>
 </sst>
 </file>
@@ -71,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -222,11 +222,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,11 +241,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -257,19 +254,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,10 +266,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,6 +277,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033D1CDC-C50D-8F44-A70F-6C040BCEABE3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -889,11 +892,11 @@
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -905,8 +908,8 @@
       <c r="C2" s="6">
         <v>2017</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="6">
         <v>2017</v>
@@ -914,11 +917,11 @@
       <c r="F2" s="7">
         <v>2018</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -931,7 +934,7 @@
       <c r="C3" s="3">
         <v>177866</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <f>((C3-B3)/B3)</f>
         <v>0.30796326119408474</v>
       </c>
@@ -941,11 +944,11 @@
       <c r="F3" s="3">
         <v>232887</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <f>((F3-E3)/E3)</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="22">
         <f>G3-D3</f>
         <v>1.3763540218643677E-3</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3">
         <v>0</v>
       </c>
@@ -968,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="14" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -980,7 +983,7 @@
       <c r="C5" s="3">
         <v>111934</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D7" si="0">((C5-B5)/B5)</f>
         <v>0.26815838667648556</v>
       </c>
@@ -990,11 +993,11 @@
       <c r="F5" s="3">
         <v>139156</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <f t="shared" ref="G5:G10" si="1">((F5-E5)/E5)</f>
         <v>0.24319688387799954</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="24">
         <f>G5-D5</f>
         <v>-2.4961502798486024E-2</v>
       </c>
@@ -1009,7 +1012,7 @@
       <c r="C6" s="3">
         <v>10069</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>0.39209180146550532</v>
       </c>
@@ -1019,11 +1022,11 @@
       <c r="F6" s="3">
         <v>13814</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>0.37193365776144605</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="22">
         <f>G6-D6</f>
         <v>-2.0158143704059273E-2</v>
       </c>
@@ -1040,7 +1043,7 @@
         <f>C9-C6-C5</f>
         <v>51757</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0.42569484615596509</v>
       </c>
@@ -1052,11 +1055,11 @@
         <f>F9-F6-F5</f>
         <v>67496</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <f t="shared" si="1"/>
         <v>0.30409413219467896</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="25">
         <f>G7-D7</f>
         <v>-0.12160071396128613</v>
       </c>
@@ -1065,11 +1068,11 @@
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="17"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1081,7 +1084,7 @@
       <c r="C9" s="8">
         <v>173760</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <f t="shared" ref="D9:D10" si="2">((C9-B9)/B9)</f>
         <v>0.31835115059825037</v>
       </c>
@@ -1091,11 +1094,11 @@
       <c r="F9" s="8">
         <v>220466</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>0.26879604051565376</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="22">
         <f>G9-D9</f>
         <v>-4.955511008259661E-2</v>
       </c>
@@ -1110,7 +1113,7 @@
       <c r="C10" s="3">
         <v>4106</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <f t="shared" si="2"/>
         <v>-1.9111323459149548E-2</v>
       </c>
@@ -1120,11 +1123,11 @@
       <c r="F10" s="3">
         <v>12421</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>2.02508524111057</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="22">
         <f>G10-D10</f>
         <v>2.0441965645697193</v>
       </c>
@@ -1142,20 +1145,20 @@
       <c r="B12" s="7">
         <v>2018</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>2019</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12">
         <v>2019</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>2020</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>9</v>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1169,18 +1172,18 @@
         <f>B13*(1+G3+I3)</f>
         <v>305248.70992788667</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f>(C13-B13)/B13</f>
         <v>0.31071596923781347</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>305248.70992788667</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="17">
         <f>E13*(1+D13+I3)</f>
         <v>400514.48898130027</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f>(F13-E13)/E13</f>
         <v>0.31209232325967773</v>
       </c>
@@ -1206,18 +1209,18 @@
         <f>B15*(1+G5+I5)</f>
         <v>169524.76268950079</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" ref="D15:D17" si="3">(C15-B15)/B15</f>
         <v>0.21823538107951354</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>169524.76268950079</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <f>E15*(1+D15+I5)</f>
         <v>202289.47103917142</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f t="shared" ref="G15:G17" si="4">(F15-E15)/E15</f>
         <v>0.19327387828102741</v>
       </c>
@@ -1233,18 +1236,18 @@
         <f>B16*(1+G6+I6)</f>
         <v>18673.426951188743</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="3"/>
         <v>0.35177551405738694</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>18673.426951188743</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="17">
         <f>E16*(1+D16+I6)</f>
         <v>24865.85969222691</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f t="shared" si="4"/>
         <v>0.33161737035332761</v>
       </c>
@@ -1261,18 +1264,18 @@
         <f>B17*(1+G7+I7)</f>
         <v>79813.575757081082</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="3"/>
         <v>0.18249341823339282</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>79813.575757081082</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="17">
         <f>E17*(1+D17+I7)</f>
         <v>84673.640222556409</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f t="shared" si="4"/>
         <v>6.0892704272106746E-2</v>
       </c>
@@ -1296,18 +1299,18 @@
         <f>B19*(1+G9+I9)</f>
         <v>268801.17096885439</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>(C19-B19)/B19</f>
         <v>0.21924093043305723</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>268801.17096885439</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="18">
         <f>E19*(1+D19+I9)</f>
         <v>314412.91817586886</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f>(F19-E19)/E19</f>
         <v>0.16968582035046059</v>
       </c>
@@ -1323,27 +1326,27 @@
         <f>C13-C19</f>
         <v>36447.538959032274</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>(C20-B20)/B20</f>
         <v>1.9343481973297056</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>36447.538959032274</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="17">
         <f>F13-F19</f>
         <v>86101.570805431402</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f>(F20-E20)/E20</f>
         <v>1.3623425137760661</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="E21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="24"/>
+      <c r="E21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/amazon.xlsx
+++ b/amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EdwinSue/Desktop/NYTTP/Excel/Practice Excercises/Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF83CBC-B279-0547-9885-371776192987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CA9A96-4E0D-0F45-B740-EEFF4AC8F9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Total net sales</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>% change between the years</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -882,7 +888,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -971,7 +977,9 @@
         <v>0</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -1072,7 +1080,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="13"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
